--- a/stock_historical_data/1mo/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1mo/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,60 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B74" t="n">
+        <v>485</v>
+      </c>
+      <c r="C74" t="n">
+        <v>485</v>
+      </c>
+      <c r="D74" t="n">
+        <v>485</v>
+      </c>
+      <c r="E74" t="n">
+        <v>485</v>
+      </c>
+      <c r="F74" t="n">
+        <v>485</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>22</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1mo/BORORENEW.NS.xlsx
@@ -4389,7 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1mo/BORORENEW.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B2" t="n">
-        <v>55.34957504272461</v>
+        <v>50.4759051781459</v>
       </c>
       <c r="C2" t="n">
-        <v>66.93209838867188</v>
+        <v>56.39639414576604</v>
       </c>
       <c r="D2" t="n">
-        <v>47.93084335327148</v>
+        <v>49.42426183587399</v>
       </c>
       <c r="E2" t="n">
-        <v>57.94723129272461</v>
-      </c>
-      <c r="F2" t="n">
-        <v>56.4945068359375</v>
-      </c>
+        <v>53.51433181762695</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>16213101</v>
+        <v>1039232</v>
       </c>
       <c r="H2" t="n">
         <v>2018</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B3" t="n">
+        <v>55.34957504272461</v>
+      </c>
+      <c r="C3" t="n">
+        <v>66.93209838867188</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.93084335327148</v>
+      </c>
+      <c r="E3" t="n">
         <v>57.94723129272461</v>
       </c>
-      <c r="C3" t="n">
-        <v>77.04912567138672</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57.94723129272461</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75.97357940673828</v>
-      </c>
       <c r="F3" t="n">
-        <v>74.06893920898438</v>
+        <v>56.4945068359375</v>
       </c>
       <c r="G3" t="n">
-        <v>17106462</v>
+        <v>16213101</v>
       </c>
       <c r="H3" t="n">
         <v>2018</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B4" t="n">
-        <v>77.07742309570312</v>
+        <v>57.94723129272461</v>
       </c>
       <c r="C4" t="n">
-        <v>100.1324081420898</v>
+        <v>77.04912567138672</v>
       </c>
       <c r="D4" t="n">
-        <v>70.64617919921875</v>
+        <v>57.94723129272461</v>
       </c>
       <c r="E4" t="n">
-        <v>84.97417449951172</v>
+        <v>75.97357940673828</v>
       </c>
       <c r="F4" t="n">
-        <v>83.65245819091797</v>
+        <v>74.06893920898438</v>
       </c>
       <c r="G4" t="n">
-        <v>36715557</v>
+        <v>17106462</v>
       </c>
       <c r="H4" t="n">
         <v>2018</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B5" t="n">
-        <v>83.27594757080078</v>
+        <v>77.07742309570312</v>
       </c>
       <c r="C5" t="n">
-        <v>85.52767181396484</v>
+        <v>100.1324081420898</v>
       </c>
       <c r="D5" t="n">
-        <v>66.73397827148438</v>
+        <v>70.64617919921875</v>
       </c>
       <c r="E5" t="n">
-        <v>67.66485595703125</v>
+        <v>84.97417449951172</v>
       </c>
       <c r="F5" t="n">
-        <v>66.61237335205078</v>
+        <v>83.65245819091797</v>
       </c>
       <c r="G5" t="n">
-        <v>9745143</v>
+        <v>36715557</v>
       </c>
       <c r="H5" t="n">
         <v>2018</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B6" t="n">
-        <v>68.63346862792969</v>
+        <v>83.27594757080078</v>
       </c>
       <c r="C6" t="n">
-        <v>74.21875</v>
+        <v>85.52767181396484</v>
       </c>
       <c r="D6" t="n">
-        <v>59.12340927124023</v>
+        <v>66.73397827148438</v>
       </c>
       <c r="E6" t="n">
-        <v>65.40055084228516</v>
+        <v>67.66485595703125</v>
       </c>
       <c r="F6" t="n">
-        <v>64.38328552246094</v>
+        <v>66.61237335205078</v>
       </c>
       <c r="G6" t="n">
-        <v>8352798</v>
+        <v>9745143</v>
       </c>
       <c r="H6" t="n">
         <v>2018</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B7" t="n">
-        <v>65.76535797119141</v>
+        <v>68.63346862792969</v>
       </c>
       <c r="C7" t="n">
-        <v>66.557861328125</v>
+        <v>74.21875</v>
       </c>
       <c r="D7" t="n">
-        <v>58.05415344238281</v>
+        <v>59.12340927124023</v>
       </c>
       <c r="E7" t="n">
-        <v>59.06051254272461</v>
+        <v>65.40055084228516</v>
       </c>
       <c r="F7" t="n">
-        <v>58.14186477661133</v>
+        <v>64.38328552246094</v>
       </c>
       <c r="G7" t="n">
-        <v>3294155</v>
+        <v>8352798</v>
       </c>
       <c r="H7" t="n">
         <v>2018</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B8" t="n">
-        <v>59.38757705688477</v>
+        <v>65.76535797119141</v>
       </c>
       <c r="C8" t="n">
-        <v>62.02926254272461</v>
+        <v>66.557861328125</v>
       </c>
       <c r="D8" t="n">
-        <v>53.9155158996582</v>
+        <v>58.05415344238281</v>
       </c>
       <c r="E8" t="n">
-        <v>58.15479278564453</v>
+        <v>59.06051254272461</v>
       </c>
       <c r="F8" t="n">
-        <v>57.2502326965332</v>
+        <v>58.14186477661133</v>
       </c>
       <c r="G8" t="n">
-        <v>2082180</v>
+        <v>3294155</v>
       </c>
       <c r="H8" t="n">
         <v>2018</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B9" t="n">
-        <v>57.66419219970703</v>
+        <v>59.38757705688477</v>
       </c>
       <c r="C9" t="n">
-        <v>60.83421325683594</v>
+        <v>62.02926254272461</v>
       </c>
       <c r="D9" t="n">
-        <v>52.88400268554688</v>
+        <v>53.9155158996582</v>
       </c>
       <c r="E9" t="n">
-        <v>53.21106719970703</v>
+        <v>58.15479278564453</v>
       </c>
       <c r="F9" t="n">
-        <v>52.38340377807617</v>
+        <v>57.2502326965332</v>
       </c>
       <c r="G9" t="n">
-        <v>2784191</v>
+        <v>2082180</v>
       </c>
       <c r="H9" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B10" t="n">
-        <v>52.90916061401367</v>
+        <v>57.66419219970703</v>
       </c>
       <c r="C10" t="n">
-        <v>58.07931518554688</v>
+        <v>60.83421325683594</v>
       </c>
       <c r="D10" t="n">
-        <v>49.34917831420898</v>
+        <v>52.88400268554688</v>
       </c>
       <c r="E10" t="n">
-        <v>53.07269287109375</v>
+        <v>53.21106719970703</v>
       </c>
       <c r="F10" t="n">
-        <v>52.2471809387207</v>
+        <v>52.38340377807617</v>
       </c>
       <c r="G10" t="n">
-        <v>3661013</v>
+        <v>2784191</v>
       </c>
       <c r="H10" t="n">
         <v>2019</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B11" t="n">
-        <v>53.16075134277344</v>
+        <v>52.90916061401367</v>
       </c>
       <c r="C11" t="n">
-        <v>59.75238037109375</v>
+        <v>58.07931518554688</v>
       </c>
       <c r="D11" t="n">
-        <v>52.36824417114258</v>
+        <v>49.34917831420898</v>
       </c>
       <c r="E11" t="n">
-        <v>52.78336715698242</v>
+        <v>53.07269287109375</v>
       </c>
       <c r="F11" t="n">
-        <v>51.96235656738281</v>
+        <v>52.2471809387207</v>
       </c>
       <c r="G11" t="n">
-        <v>4590710</v>
+        <v>3661013</v>
       </c>
       <c r="H11" t="n">
         <v>2019</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B12" t="n">
-        <v>52.85884475708008</v>
+        <v>53.16075134277344</v>
       </c>
       <c r="C12" t="n">
-        <v>56.40624618530273</v>
+        <v>59.75238037109375</v>
       </c>
       <c r="D12" t="n">
-        <v>50.31779479980469</v>
+        <v>52.36824417114258</v>
       </c>
       <c r="E12" t="n">
-        <v>50.84613037109375</v>
+        <v>52.78336715698242</v>
       </c>
       <c r="F12" t="n">
-        <v>50.05525207519531</v>
+        <v>51.96235656738281</v>
       </c>
       <c r="G12" t="n">
-        <v>3620751</v>
+        <v>4590710</v>
       </c>
       <c r="H12" t="n">
         <v>2019</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B13" t="n">
+        <v>52.85884475708008</v>
+      </c>
+      <c r="C13" t="n">
+        <v>56.40624618530273</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50.31779479980469</v>
+      </c>
+      <c r="E13" t="n">
         <v>50.84613037109375</v>
       </c>
-      <c r="C13" t="n">
-        <v>52.83368301391602</v>
-      </c>
-      <c r="D13" t="n">
-        <v>47.12261581420898</v>
-      </c>
-      <c r="E13" t="n">
-        <v>49.00952911376953</v>
-      </c>
       <c r="F13" t="n">
-        <v>48.24721527099609</v>
+        <v>50.05525207519531</v>
       </c>
       <c r="G13" t="n">
-        <v>3653040</v>
+        <v>3620751</v>
       </c>
       <c r="H13" t="n">
         <v>2019</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B14" t="n">
-        <v>49.55044937133789</v>
+        <v>50.84613037109375</v>
       </c>
       <c r="C14" t="n">
-        <v>49.56302642822266</v>
+        <v>52.83368301391602</v>
       </c>
       <c r="D14" t="n">
-        <v>41.31090927124023</v>
+        <v>47.12261581420898</v>
       </c>
       <c r="E14" t="n">
-        <v>42.39274215698242</v>
+        <v>49.00952911376953</v>
       </c>
       <c r="F14" t="n">
-        <v>41.73334884643555</v>
+        <v>48.24721527099609</v>
       </c>
       <c r="G14" t="n">
-        <v>2669145</v>
+        <v>3653040</v>
       </c>
       <c r="H14" t="n">
         <v>2019</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B15" t="n">
-        <v>42.59401321411133</v>
+        <v>49.55044937133789</v>
       </c>
       <c r="C15" t="n">
-        <v>44.12870407104492</v>
+        <v>49.56302642822266</v>
       </c>
       <c r="D15" t="n">
-        <v>32.01469421386719</v>
+        <v>41.31090927124023</v>
       </c>
       <c r="E15" t="n">
-        <v>33.27264022827148</v>
+        <v>42.39274215698242</v>
       </c>
       <c r="F15" t="n">
-        <v>32.75510406494141</v>
+        <v>41.73334884643555</v>
       </c>
       <c r="G15" t="n">
-        <v>2741621</v>
+        <v>2669145</v>
       </c>
       <c r="H15" t="n">
         <v>2019</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B16" t="n">
-        <v>33.23490142822266</v>
+        <v>42.59401321411133</v>
       </c>
       <c r="C16" t="n">
-        <v>35.14698028564453</v>
+        <v>44.12870407104492</v>
       </c>
       <c r="D16" t="n">
-        <v>28.4547119140625</v>
+        <v>32.01469421386719</v>
       </c>
       <c r="E16" t="n">
-        <v>33.24748229980469</v>
+        <v>33.27264022827148</v>
       </c>
       <c r="F16" t="n">
-        <v>32.73033905029297</v>
+        <v>32.75510406494141</v>
       </c>
       <c r="G16" t="n">
-        <v>3406299</v>
+        <v>2741621</v>
       </c>
       <c r="H16" t="n">
         <v>2019</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B17" t="n">
+        <v>33.23490142822266</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.14698028564453</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28.4547119140625</v>
+      </c>
+      <c r="E17" t="n">
         <v>33.24748229980469</v>
       </c>
-      <c r="C17" t="n">
-        <v>47.12261581420898</v>
-      </c>
-      <c r="D17" t="n">
-        <v>32.70656585693359</v>
-      </c>
-      <c r="E17" t="n">
-        <v>44.56898498535156</v>
-      </c>
       <c r="F17" t="n">
-        <v>43.8757438659668</v>
+        <v>32.73033905029297</v>
       </c>
       <c r="G17" t="n">
-        <v>10979366</v>
+        <v>3406299</v>
       </c>
       <c r="H17" t="n">
         <v>2019</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B18" t="n">
+        <v>33.24748229980469</v>
+      </c>
+      <c r="C18" t="n">
+        <v>47.12261581420898</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32.70656585693359</v>
+      </c>
+      <c r="E18" t="n">
         <v>44.56898498535156</v>
       </c>
-      <c r="C18" t="n">
-        <v>45.03442764282227</v>
-      </c>
-      <c r="D18" t="n">
-        <v>38.29183959960938</v>
-      </c>
-      <c r="E18" t="n">
-        <v>44.25450134277344</v>
-      </c>
       <c r="F18" t="n">
-        <v>43.5661506652832</v>
+        <v>43.8757438659668</v>
       </c>
       <c r="G18" t="n">
-        <v>4600169</v>
+        <v>10979366</v>
       </c>
       <c r="H18" t="n">
         <v>2019</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B19" t="n">
-        <v>44.27965927124023</v>
+        <v>44.56898498535156</v>
       </c>
       <c r="C19" t="n">
-        <v>50.06620407104492</v>
+        <v>45.03442764282227</v>
       </c>
       <c r="D19" t="n">
-        <v>42.01535797119141</v>
+        <v>38.29183959960938</v>
       </c>
       <c r="E19" t="n">
-        <v>43.82679748535156</v>
+        <v>44.25450134277344</v>
       </c>
       <c r="F19" t="n">
-        <v>43.14509963989258</v>
+        <v>43.5661506652832</v>
       </c>
       <c r="G19" t="n">
-        <v>8463865</v>
+        <v>4600169</v>
       </c>
       <c r="H19" t="n">
         <v>2019</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B20" t="n">
-        <v>44.77025604248047</v>
+        <v>44.27965927124023</v>
       </c>
       <c r="C20" t="n">
-        <v>44.77025604248047</v>
+        <v>50.06620407104492</v>
       </c>
       <c r="D20" t="n">
-        <v>38.71954345703125</v>
+        <v>42.01535797119141</v>
       </c>
       <c r="E20" t="n">
-        <v>38.98371124267578</v>
+        <v>43.82679748535156</v>
       </c>
       <c r="F20" t="n">
-        <v>38.37734603881836</v>
+        <v>43.14509963989258</v>
       </c>
       <c r="G20" t="n">
-        <v>3933363</v>
+        <v>8463865</v>
       </c>
       <c r="H20" t="n">
         <v>2019</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B21" t="n">
-        <v>39.24787902832031</v>
+        <v>44.77025604248047</v>
       </c>
       <c r="C21" t="n">
-        <v>46.2923698425293</v>
+        <v>44.77025604248047</v>
       </c>
       <c r="D21" t="n">
-        <v>37.93961715698242</v>
+        <v>38.71954345703125</v>
       </c>
       <c r="E21" t="n">
-        <v>43.77648162841797</v>
+        <v>38.98371124267578</v>
       </c>
       <c r="F21" t="n">
-        <v>43.77648162841797</v>
+        <v>38.37734603881836</v>
       </c>
       <c r="G21" t="n">
-        <v>8937611</v>
+        <v>3933363</v>
       </c>
       <c r="H21" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B22" t="n">
-        <v>43.23556518554688</v>
+        <v>39.24787902832031</v>
       </c>
       <c r="C22" t="n">
-        <v>56.35593032836914</v>
+        <v>46.2923698425293</v>
       </c>
       <c r="D22" t="n">
-        <v>41.5876579284668</v>
+        <v>37.93961715698242</v>
       </c>
       <c r="E22" t="n">
-        <v>45.776611328125</v>
+        <v>43.77648162841797</v>
       </c>
       <c r="F22" t="n">
-        <v>45.776611328125</v>
+        <v>43.77648162841797</v>
       </c>
       <c r="G22" t="n">
-        <v>26942973</v>
+        <v>8937611</v>
       </c>
       <c r="H22" t="n">
         <v>2020</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B23" t="n">
-        <v>46.79554748535156</v>
+        <v>43.23556518554688</v>
       </c>
       <c r="C23" t="n">
-        <v>54.90000152587891</v>
+        <v>56.35593032836914</v>
       </c>
       <c r="D23" t="n">
-        <v>27.5</v>
+        <v>41.5876579284668</v>
       </c>
       <c r="E23" t="n">
-        <v>37.25</v>
+        <v>45.776611328125</v>
       </c>
       <c r="F23" t="n">
-        <v>37.25</v>
+        <v>45.776611328125</v>
       </c>
       <c r="G23" t="n">
-        <v>3416537</v>
+        <v>26942973</v>
       </c>
       <c r="H23" t="n">
         <v>2020</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B24" t="n">
-        <v>38</v>
+        <v>46.79554748535156</v>
       </c>
       <c r="C24" t="n">
-        <v>42.59999847412109</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="D24" t="n">
-        <v>32.79999923706055</v>
+        <v>27.5</v>
       </c>
       <c r="E24" t="n">
-        <v>37.40000152587891</v>
+        <v>37.25</v>
       </c>
       <c r="F24" t="n">
-        <v>37.40000152587891</v>
+        <v>37.25</v>
       </c>
       <c r="G24" t="n">
-        <v>6176081</v>
+        <v>3416537</v>
       </c>
       <c r="H24" t="n">
         <v>2020</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B25" t="n">
+        <v>38</v>
+      </c>
+      <c r="C25" t="n">
+        <v>42.59999847412109</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32.79999923706055</v>
+      </c>
+      <c r="E25" t="n">
         <v>37.40000152587891</v>
       </c>
-      <c r="C25" t="n">
-        <v>37.45000076293945</v>
-      </c>
-      <c r="D25" t="n">
-        <v>33.59999847412109</v>
-      </c>
-      <c r="E25" t="n">
-        <v>34.95000076293945</v>
-      </c>
       <c r="F25" t="n">
-        <v>34.95000076293945</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="G25" t="n">
-        <v>2899275</v>
+        <v>6176081</v>
       </c>
       <c r="H25" t="n">
         <v>2020</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B26" t="n">
-        <v>35.34999847412109</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="C26" t="n">
-        <v>149</v>
+        <v>37.45000076293945</v>
       </c>
       <c r="D26" t="n">
-        <v>35.20000076293945</v>
+        <v>33.59999847412109</v>
       </c>
       <c r="E26" t="n">
-        <v>132.8000030517578</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="F26" t="n">
-        <v>132.8000030517578</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="G26" t="n">
-        <v>15916395</v>
+        <v>2899275</v>
       </c>
       <c r="H26" t="n">
         <v>2020</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B27" t="n">
-        <v>126.1999969482422</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="C27" t="n">
-        <v>126.1999969482422</v>
+        <v>149</v>
       </c>
       <c r="D27" t="n">
-        <v>67.65000152587891</v>
+        <v>35.20000076293945</v>
       </c>
       <c r="E27" t="n">
-        <v>77.75</v>
+        <v>132.8000030517578</v>
       </c>
       <c r="F27" t="n">
-        <v>77.75</v>
+        <v>132.8000030517578</v>
       </c>
       <c r="G27" t="n">
-        <v>12065233</v>
+        <v>15916395</v>
       </c>
       <c r="H27" t="n">
         <v>2020</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,45 +1882,45 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B28" t="n">
-        <v>77.65000152587891</v>
+        <v>126.1999969482422</v>
       </c>
       <c r="C28" t="n">
-        <v>87.80000305175781</v>
+        <v>126.1999969482422</v>
       </c>
       <c r="D28" t="n">
-        <v>73.25</v>
+        <v>67.65000152587891</v>
       </c>
       <c r="E28" t="n">
-        <v>77.44999694824219</v>
+        <v>77.75</v>
       </c>
       <c r="F28" t="n">
-        <v>77.44999694824219</v>
+        <v>77.75</v>
       </c>
       <c r="G28" t="n">
-        <v>5372025</v>
+        <v>12065233</v>
       </c>
       <c r="H28" t="n">
         <v>2020</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1952,36 +1944,36 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B29" t="n">
-        <v>77.5</v>
+        <v>77.65000152587891</v>
       </c>
       <c r="C29" t="n">
-        <v>81.40000152587891</v>
+        <v>87.80000305175781</v>
       </c>
       <c r="D29" t="n">
-        <v>67.5</v>
+        <v>73.25</v>
       </c>
       <c r="E29" t="n">
-        <v>72.94999694824219</v>
+        <v>77.44999694824219</v>
       </c>
       <c r="F29" t="n">
-        <v>72.94999694824219</v>
+        <v>77.44999694824219</v>
       </c>
       <c r="G29" t="n">
-        <v>2502574</v>
+        <v>5372025</v>
       </c>
       <c r="H29" t="n">
         <v>2020</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B30" t="n">
-        <v>73.25</v>
+        <v>77.5</v>
       </c>
       <c r="C30" t="n">
-        <v>112.6500015258789</v>
+        <v>81.40000152587891</v>
       </c>
       <c r="D30" t="n">
-        <v>72.5</v>
+        <v>67.5</v>
       </c>
       <c r="E30" t="n">
-        <v>92.19999694824219</v>
+        <v>72.94999694824219</v>
       </c>
       <c r="F30" t="n">
-        <v>92.19999694824219</v>
+        <v>72.94999694824219</v>
       </c>
       <c r="G30" t="n">
-        <v>12583300</v>
+        <v>2502574</v>
       </c>
       <c r="H30" t="n">
         <v>2020</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2058,36 +2050,36 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B31" t="n">
-        <v>92.80000305175781</v>
+        <v>73.25</v>
       </c>
       <c r="C31" t="n">
-        <v>128.8500061035156</v>
+        <v>112.6500015258789</v>
       </c>
       <c r="D31" t="n">
-        <v>90.75</v>
+        <v>72.5</v>
       </c>
       <c r="E31" t="n">
-        <v>125.6999969482422</v>
+        <v>92.19999694824219</v>
       </c>
       <c r="F31" t="n">
-        <v>125.6999969482422</v>
+        <v>92.19999694824219</v>
       </c>
       <c r="G31" t="n">
-        <v>13993684</v>
+        <v>12583300</v>
       </c>
       <c r="H31" t="n">
         <v>2020</v>
       </c>
       <c r="I31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2111,36 +2103,36 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B32" t="n">
-        <v>127</v>
+        <v>92.80000305175781</v>
       </c>
       <c r="C32" t="n">
-        <v>323.25</v>
+        <v>128.8500061035156</v>
       </c>
       <c r="D32" t="n">
-        <v>127</v>
+        <v>90.75</v>
       </c>
       <c r="E32" t="n">
-        <v>300.4500122070312</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="F32" t="n">
-        <v>300.4500122070312</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="G32" t="n">
-        <v>37607727</v>
+        <v>13993684</v>
       </c>
       <c r="H32" t="n">
         <v>2020</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B33" t="n">
-        <v>285.4500122070312</v>
+        <v>127</v>
       </c>
       <c r="C33" t="n">
-        <v>314.6499938964844</v>
+        <v>323.25</v>
       </c>
       <c r="D33" t="n">
-        <v>236.3000030517578</v>
+        <v>127</v>
       </c>
       <c r="E33" t="n">
-        <v>274.4500122070312</v>
+        <v>300.4500122070312</v>
       </c>
       <c r="F33" t="n">
-        <v>274.4500122070312</v>
+        <v>300.4500122070312</v>
       </c>
       <c r="G33" t="n">
-        <v>22666578</v>
+        <v>37607727</v>
       </c>
       <c r="H33" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B34" t="n">
-        <v>275.1000061035156</v>
+        <v>285.4500122070312</v>
       </c>
       <c r="C34" t="n">
-        <v>324</v>
+        <v>314.6499938964844</v>
       </c>
       <c r="D34" t="n">
-        <v>267.5</v>
+        <v>236.3000030517578</v>
       </c>
       <c r="E34" t="n">
-        <v>282.3999938964844</v>
+        <v>274.4500122070312</v>
       </c>
       <c r="F34" t="n">
-        <v>282.3999938964844</v>
+        <v>274.4500122070312</v>
       </c>
       <c r="G34" t="n">
-        <v>14348597</v>
+        <v>22666578</v>
       </c>
       <c r="H34" t="n">
         <v>2021</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B35" t="n">
-        <v>292.2000122070312</v>
+        <v>275.1000061035156</v>
       </c>
       <c r="C35" t="n">
-        <v>298.7999877929688</v>
+        <v>324</v>
       </c>
       <c r="D35" t="n">
-        <v>238.5</v>
+        <v>267.5</v>
       </c>
       <c r="E35" t="n">
-        <v>246.1999969482422</v>
+        <v>282.3999938964844</v>
       </c>
       <c r="F35" t="n">
-        <v>246.1999969482422</v>
+        <v>282.3999938964844</v>
       </c>
       <c r="G35" t="n">
-        <v>9167581</v>
+        <v>14348597</v>
       </c>
       <c r="H35" t="n">
         <v>2021</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B36" t="n">
-        <v>252.1999969482422</v>
+        <v>292.2000122070312</v>
       </c>
       <c r="C36" t="n">
-        <v>264.9500122070312</v>
+        <v>298.7999877929688</v>
       </c>
       <c r="D36" t="n">
-        <v>213.25</v>
+        <v>238.5</v>
       </c>
       <c r="E36" t="n">
-        <v>231.3999938964844</v>
+        <v>246.1999969482422</v>
       </c>
       <c r="F36" t="n">
-        <v>231.3999938964844</v>
+        <v>246.1999969482422</v>
       </c>
       <c r="G36" t="n">
-        <v>8865356</v>
+        <v>9167581</v>
       </c>
       <c r="H36" t="n">
         <v>2021</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B37" t="n">
-        <v>230.1000061035156</v>
+        <v>252.1999969482422</v>
       </c>
       <c r="C37" t="n">
-        <v>298.3999938964844</v>
+        <v>264.9500122070312</v>
       </c>
       <c r="D37" t="n">
-        <v>228.5500030517578</v>
+        <v>213.25</v>
       </c>
       <c r="E37" t="n">
-        <v>269.8999938964844</v>
+        <v>231.3999938964844</v>
       </c>
       <c r="F37" t="n">
-        <v>269.8999938964844</v>
+        <v>231.3999938964844</v>
       </c>
       <c r="G37" t="n">
-        <v>23729137</v>
+        <v>8865356</v>
       </c>
       <c r="H37" t="n">
         <v>2021</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B38" t="n">
-        <v>270</v>
+        <v>230.1000061035156</v>
       </c>
       <c r="C38" t="n">
-        <v>293</v>
+        <v>298.3999938964844</v>
       </c>
       <c r="D38" t="n">
-        <v>252</v>
+        <v>228.5500030517578</v>
       </c>
       <c r="E38" t="n">
-        <v>267.5499877929688</v>
+        <v>269.8999938964844</v>
       </c>
       <c r="F38" t="n">
-        <v>267.5499877929688</v>
+        <v>269.8999938964844</v>
       </c>
       <c r="G38" t="n">
-        <v>7385132</v>
+        <v>23729137</v>
       </c>
       <c r="H38" t="n">
         <v>2021</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2482,36 +2474,36 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B39" t="n">
+        <v>270</v>
+      </c>
+      <c r="C39" t="n">
+        <v>293</v>
+      </c>
+      <c r="D39" t="n">
+        <v>252</v>
+      </c>
+      <c r="E39" t="n">
         <v>267.5499877929688</v>
       </c>
-      <c r="C39" t="n">
-        <v>333</v>
-      </c>
-      <c r="D39" t="n">
-        <v>261.2000122070312</v>
-      </c>
-      <c r="E39" t="n">
-        <v>314.7000122070312</v>
-      </c>
       <c r="F39" t="n">
-        <v>314.7000122070312</v>
+        <v>267.5499877929688</v>
       </c>
       <c r="G39" t="n">
-        <v>6117619</v>
+        <v>7385132</v>
       </c>
       <c r="H39" t="n">
         <v>2021</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2535,36 +2527,36 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B40" t="n">
-        <v>320</v>
+        <v>267.5499877929688</v>
       </c>
       <c r="C40" t="n">
-        <v>350.2000122070312</v>
+        <v>333</v>
       </c>
       <c r="D40" t="n">
-        <v>276</v>
+        <v>261.2000122070312</v>
       </c>
       <c r="E40" t="n">
-        <v>294.7999877929688</v>
+        <v>314.7000122070312</v>
       </c>
       <c r="F40" t="n">
-        <v>294.7999877929688</v>
+        <v>314.7000122070312</v>
       </c>
       <c r="G40" t="n">
-        <v>5562426</v>
+        <v>6117619</v>
       </c>
       <c r="H40" t="n">
         <v>2021</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2588,36 +2580,36 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B41" t="n">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="C41" t="n">
-        <v>337</v>
+        <v>350.2000122070312</v>
       </c>
       <c r="D41" t="n">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E41" t="n">
-        <v>308.5</v>
+        <v>294.7999877929688</v>
       </c>
       <c r="F41" t="n">
-        <v>308.5</v>
+        <v>294.7999877929688</v>
       </c>
       <c r="G41" t="n">
-        <v>5414544</v>
+        <v>5562426</v>
       </c>
       <c r="H41" t="n">
         <v>2021</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2641,36 +2633,36 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B42" t="n">
+        <v>295</v>
+      </c>
+      <c r="C42" t="n">
+        <v>337</v>
+      </c>
+      <c r="D42" t="n">
+        <v>289</v>
+      </c>
+      <c r="E42" t="n">
         <v>308.5</v>
       </c>
-      <c r="C42" t="n">
-        <v>506.3999938964844</v>
-      </c>
-      <c r="D42" t="n">
-        <v>303</v>
-      </c>
-      <c r="E42" t="n">
-        <v>449.5499877929688</v>
-      </c>
       <c r="F42" t="n">
-        <v>449.5499877929688</v>
+        <v>308.5</v>
       </c>
       <c r="G42" t="n">
-        <v>13442644</v>
+        <v>5414544</v>
       </c>
       <c r="H42" t="n">
         <v>2021</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B43" t="n">
-        <v>460</v>
+        <v>308.5</v>
       </c>
       <c r="C43" t="n">
-        <v>620</v>
+        <v>506.3999938964844</v>
       </c>
       <c r="D43" t="n">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="E43" t="n">
-        <v>588.1500244140625</v>
+        <v>449.5499877929688</v>
       </c>
       <c r="F43" t="n">
-        <v>588.1500244140625</v>
+        <v>449.5499877929688</v>
       </c>
       <c r="G43" t="n">
-        <v>16155812</v>
+        <v>13442644</v>
       </c>
       <c r="H43" t="n">
         <v>2021</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B44" t="n">
-        <v>608</v>
+        <v>460</v>
       </c>
       <c r="C44" t="n">
-        <v>747.9000244140625</v>
+        <v>620</v>
       </c>
       <c r="D44" t="n">
-        <v>562</v>
+        <v>451</v>
       </c>
       <c r="E44" t="n">
-        <v>624.25</v>
+        <v>588.1500244140625</v>
       </c>
       <c r="F44" t="n">
-        <v>624.25</v>
+        <v>588.1500244140625</v>
       </c>
       <c r="G44" t="n">
-        <v>18134941</v>
+        <v>16155812</v>
       </c>
       <c r="H44" t="n">
         <v>2021</v>
       </c>
       <c r="I44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B45" t="n">
-        <v>639.7000122070312</v>
+        <v>608</v>
       </c>
       <c r="C45" t="n">
-        <v>688.2000122070312</v>
+        <v>747.9000244140625</v>
       </c>
       <c r="D45" t="n">
-        <v>579.6500244140625</v>
+        <v>562</v>
       </c>
       <c r="E45" t="n">
-        <v>639.9000244140625</v>
+        <v>624.25</v>
       </c>
       <c r="F45" t="n">
-        <v>639.9000244140625</v>
+        <v>624.25</v>
       </c>
       <c r="G45" t="n">
-        <v>8958405</v>
+        <v>18134941</v>
       </c>
       <c r="H45" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B46" t="n">
-        <v>654.5999755859375</v>
+        <v>639.7000122070312</v>
       </c>
       <c r="C46" t="n">
-        <v>738.9000244140625</v>
+        <v>688.2000122070312</v>
       </c>
       <c r="D46" t="n">
-        <v>511.2999877929688</v>
+        <v>579.6500244140625</v>
       </c>
       <c r="E46" t="n">
-        <v>581.2999877929688</v>
+        <v>639.9000244140625</v>
       </c>
       <c r="F46" t="n">
-        <v>581.2999877929688</v>
+        <v>639.9000244140625</v>
       </c>
       <c r="G46" t="n">
-        <v>12956514</v>
+        <v>8958405</v>
       </c>
       <c r="H46" t="n">
         <v>2022</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B47" t="n">
+        <v>654.5999755859375</v>
+      </c>
+      <c r="C47" t="n">
+        <v>738.9000244140625</v>
+      </c>
+      <c r="D47" t="n">
+        <v>511.2999877929688</v>
+      </c>
+      <c r="E47" t="n">
         <v>581.2999877929688</v>
       </c>
-      <c r="C47" t="n">
-        <v>632</v>
-      </c>
-      <c r="D47" t="n">
-        <v>540.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>580.25</v>
-      </c>
       <c r="F47" t="n">
-        <v>580.25</v>
+        <v>581.2999877929688</v>
       </c>
       <c r="G47" t="n">
-        <v>5809817</v>
+        <v>12956514</v>
       </c>
       <c r="H47" t="n">
         <v>2022</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B48" t="n">
-        <v>578.2999877929688</v>
+        <v>581.2999877929688</v>
       </c>
       <c r="C48" t="n">
-        <v>833.3499755859375</v>
+        <v>632</v>
       </c>
       <c r="D48" t="n">
-        <v>578.2999877929688</v>
+        <v>540.5</v>
       </c>
       <c r="E48" t="n">
-        <v>704.9000244140625</v>
+        <v>580.25</v>
       </c>
       <c r="F48" t="n">
-        <v>704.9000244140625</v>
+        <v>580.25</v>
       </c>
       <c r="G48" t="n">
-        <v>29901510</v>
+        <v>5809817</v>
       </c>
       <c r="H48" t="n">
         <v>2022</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,45 +2995,45 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B49" t="n">
-        <v>704</v>
+        <v>578.2999877929688</v>
       </c>
       <c r="C49" t="n">
-        <v>729.5</v>
+        <v>833.3499755859375</v>
       </c>
       <c r="D49" t="n">
-        <v>542.5499877929688</v>
+        <v>578.2999877929688</v>
       </c>
       <c r="E49" t="n">
-        <v>656.7999877929688</v>
+        <v>704.9000244140625</v>
       </c>
       <c r="F49" t="n">
-        <v>656.7999877929688</v>
+        <v>704.9000244140625</v>
       </c>
       <c r="G49" t="n">
-        <v>14670770</v>
+        <v>29901510</v>
       </c>
       <c r="H49" t="n">
         <v>2022</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,45 +3048,45 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B50" t="n">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="C50" t="n">
-        <v>710</v>
+        <v>729.5</v>
       </c>
       <c r="D50" t="n">
-        <v>579.2000122070312</v>
+        <v>542.5499877929688</v>
       </c>
       <c r="E50" t="n">
-        <v>601.7000122070312</v>
+        <v>656.7999877929688</v>
       </c>
       <c r="F50" t="n">
-        <v>601.7000122070312</v>
+        <v>656.7999877929688</v>
       </c>
       <c r="G50" t="n">
-        <v>9013281</v>
+        <v>14670770</v>
       </c>
       <c r="H50" t="n">
         <v>2022</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B51" t="n">
-        <v>603</v>
+        <v>664</v>
       </c>
       <c r="C51" t="n">
-        <v>676.8499755859375</v>
+        <v>710</v>
       </c>
       <c r="D51" t="n">
-        <v>595.2000122070312</v>
+        <v>579.2000122070312</v>
       </c>
       <c r="E51" t="n">
-        <v>617.7999877929688</v>
+        <v>601.7000122070312</v>
       </c>
       <c r="F51" t="n">
-        <v>617.7999877929688</v>
+        <v>601.7000122070312</v>
       </c>
       <c r="G51" t="n">
-        <v>6450594</v>
+        <v>9013281</v>
       </c>
       <c r="H51" t="n">
         <v>2022</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B52" t="n">
-        <v>621.4000244140625</v>
+        <v>603</v>
       </c>
       <c r="C52" t="n">
-        <v>659.7999877929688</v>
+        <v>676.8499755859375</v>
       </c>
       <c r="D52" t="n">
-        <v>525.5499877929688</v>
+        <v>595.2000122070312</v>
       </c>
       <c r="E52" t="n">
-        <v>567.7999877929688</v>
+        <v>617.7999877929688</v>
       </c>
       <c r="F52" t="n">
-        <v>567.7999877929688</v>
+        <v>617.7999877929688</v>
       </c>
       <c r="G52" t="n">
-        <v>12444030</v>
+        <v>6450594</v>
       </c>
       <c r="H52" t="n">
         <v>2022</v>
       </c>
       <c r="I52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3224,36 +3216,36 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B53" t="n">
-        <v>565.9000244140625</v>
+        <v>621.4000244140625</v>
       </c>
       <c r="C53" t="n">
-        <v>624.8499755859375</v>
+        <v>659.7999877929688</v>
       </c>
       <c r="D53" t="n">
-        <v>554.5999755859375</v>
+        <v>525.5499877929688</v>
       </c>
       <c r="E53" t="n">
-        <v>582.2999877929688</v>
+        <v>567.7999877929688</v>
       </c>
       <c r="F53" t="n">
-        <v>582.2999877929688</v>
+        <v>567.7999877929688</v>
       </c>
       <c r="G53" t="n">
-        <v>12062916</v>
+        <v>12444030</v>
       </c>
       <c r="H53" t="n">
         <v>2022</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3277,36 +3269,36 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B54" t="n">
+        <v>565.9000244140625</v>
+      </c>
+      <c r="C54" t="n">
+        <v>624.8499755859375</v>
+      </c>
+      <c r="D54" t="n">
+        <v>554.5999755859375</v>
+      </c>
+      <c r="E54" t="n">
         <v>582.2999877929688</v>
       </c>
-      <c r="C54" t="n">
-        <v>597</v>
-      </c>
-      <c r="D54" t="n">
-        <v>542.0499877929688</v>
-      </c>
-      <c r="E54" t="n">
-        <v>563.7000122070312</v>
-      </c>
       <c r="F54" t="n">
-        <v>563.7000122070312</v>
+        <v>582.2999877929688</v>
       </c>
       <c r="G54" t="n">
-        <v>3279140</v>
+        <v>12062916</v>
       </c>
       <c r="H54" t="n">
         <v>2022</v>
       </c>
       <c r="I54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B55" t="n">
+        <v>582.2999877929688</v>
+      </c>
+      <c r="C55" t="n">
+        <v>597</v>
+      </c>
+      <c r="D55" t="n">
+        <v>542.0499877929688</v>
+      </c>
+      <c r="E55" t="n">
         <v>563.7000122070312</v>
       </c>
-      <c r="C55" t="n">
-        <v>589.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>515.0499877929688</v>
-      </c>
-      <c r="E55" t="n">
-        <v>543.2000122070312</v>
-      </c>
       <c r="F55" t="n">
-        <v>543.2000122070312</v>
+        <v>563.7000122070312</v>
       </c>
       <c r="G55" t="n">
-        <v>3756517</v>
+        <v>3279140</v>
       </c>
       <c r="H55" t="n">
         <v>2022</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B56" t="n">
-        <v>545.9500122070312</v>
+        <v>563.7000122070312</v>
       </c>
       <c r="C56" t="n">
-        <v>551.9500122070312</v>
+        <v>589.5</v>
       </c>
       <c r="D56" t="n">
-        <v>467.1499938964844</v>
+        <v>515.0499877929688</v>
       </c>
       <c r="E56" t="n">
-        <v>508.6499938964844</v>
+        <v>543.2000122070312</v>
       </c>
       <c r="F56" t="n">
-        <v>508.6499938964844</v>
+        <v>543.2000122070312</v>
       </c>
       <c r="G56" t="n">
-        <v>3669102</v>
+        <v>3756517</v>
       </c>
       <c r="H56" t="n">
         <v>2022</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B57" t="n">
+        <v>545.9500122070312</v>
+      </c>
+      <c r="C57" t="n">
+        <v>551.9500122070312</v>
+      </c>
+      <c r="D57" t="n">
+        <v>467.1499938964844</v>
+      </c>
+      <c r="E57" t="n">
         <v>508.6499938964844</v>
       </c>
-      <c r="C57" t="n">
-        <v>520</v>
-      </c>
-      <c r="D57" t="n">
-        <v>460</v>
-      </c>
-      <c r="E57" t="n">
-        <v>476.8999938964844</v>
-      </c>
       <c r="F57" t="n">
-        <v>476.8999938964844</v>
+        <v>508.6499938964844</v>
       </c>
       <c r="G57" t="n">
-        <v>2153134</v>
+        <v>3669102</v>
       </c>
       <c r="H57" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B58" t="n">
-        <v>485</v>
+        <v>508.6499938964844</v>
       </c>
       <c r="C58" t="n">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D58" t="n">
-        <v>436.3500061035156</v>
+        <v>460</v>
       </c>
       <c r="E58" t="n">
-        <v>469.2000122070312</v>
+        <v>476.8999938964844</v>
       </c>
       <c r="F58" t="n">
-        <v>469.2000122070312</v>
+        <v>476.8999938964844</v>
       </c>
       <c r="G58" t="n">
-        <v>6369300</v>
+        <v>2153134</v>
       </c>
       <c r="H58" t="n">
         <v>2023</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B59" t="n">
+        <v>485</v>
+      </c>
+      <c r="C59" t="n">
+        <v>534</v>
+      </c>
+      <c r="D59" t="n">
+        <v>436.3500061035156</v>
+      </c>
+      <c r="E59" t="n">
         <v>469.2000122070312</v>
       </c>
-      <c r="C59" t="n">
-        <v>479.9500122070312</v>
-      </c>
-      <c r="D59" t="n">
-        <v>380</v>
-      </c>
-      <c r="E59" t="n">
-        <v>410.8500061035156</v>
-      </c>
       <c r="F59" t="n">
-        <v>410.8500061035156</v>
+        <v>469.2000122070312</v>
       </c>
       <c r="G59" t="n">
-        <v>5632312</v>
+        <v>6369300</v>
       </c>
       <c r="H59" t="n">
         <v>2023</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B60" t="n">
-        <v>412.25</v>
+        <v>469.2000122070312</v>
       </c>
       <c r="C60" t="n">
-        <v>532.6500244140625</v>
+        <v>479.9500122070312</v>
       </c>
       <c r="D60" t="n">
-        <v>412.25</v>
+        <v>380</v>
       </c>
       <c r="E60" t="n">
-        <v>511.5</v>
+        <v>410.8500061035156</v>
       </c>
       <c r="F60" t="n">
-        <v>511.5</v>
+        <v>410.8500061035156</v>
       </c>
       <c r="G60" t="n">
-        <v>9414452</v>
+        <v>5632312</v>
       </c>
       <c r="H60" t="n">
         <v>2023</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B61" t="n">
+        <v>412.25</v>
+      </c>
+      <c r="C61" t="n">
+        <v>532.6500244140625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>412.25</v>
+      </c>
+      <c r="E61" t="n">
         <v>511.5</v>
       </c>
-      <c r="C61" t="n">
-        <v>548.5999755859375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>470</v>
-      </c>
-      <c r="E61" t="n">
-        <v>545.6500244140625</v>
-      </c>
       <c r="F61" t="n">
-        <v>545.6500244140625</v>
+        <v>511.5</v>
       </c>
       <c r="G61" t="n">
-        <v>7505483</v>
+        <v>9414452</v>
       </c>
       <c r="H61" t="n">
         <v>2023</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B62" t="n">
-        <v>550.2000122070312</v>
+        <v>511.5</v>
       </c>
       <c r="C62" t="n">
-        <v>573</v>
+        <v>548.5999755859375</v>
       </c>
       <c r="D62" t="n">
-        <v>503.7999877929688</v>
+        <v>470</v>
       </c>
       <c r="E62" t="n">
-        <v>505.9500122070312</v>
+        <v>545.6500244140625</v>
       </c>
       <c r="F62" t="n">
-        <v>505.9500122070312</v>
+        <v>545.6500244140625</v>
       </c>
       <c r="G62" t="n">
-        <v>7017589</v>
+        <v>7505483</v>
       </c>
       <c r="H62" t="n">
         <v>2023</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B63" t="n">
-        <v>507.9500122070312</v>
+        <v>550.2000122070312</v>
       </c>
       <c r="C63" t="n">
-        <v>515.75</v>
+        <v>573</v>
       </c>
       <c r="D63" t="n">
-        <v>470</v>
+        <v>503.7999877929688</v>
       </c>
       <c r="E63" t="n">
-        <v>502.5</v>
+        <v>505.9500122070312</v>
       </c>
       <c r="F63" t="n">
-        <v>502.5</v>
+        <v>505.9500122070312</v>
       </c>
       <c r="G63" t="n">
-        <v>6136268</v>
+        <v>7017589</v>
       </c>
       <c r="H63" t="n">
         <v>2023</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,45 +3790,45 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B64" t="n">
-        <v>504.7999877929688</v>
+        <v>507.9500122070312</v>
       </c>
       <c r="C64" t="n">
-        <v>516.0499877929688</v>
+        <v>515.75</v>
       </c>
       <c r="D64" t="n">
-        <v>426.7999877929688</v>
+        <v>470</v>
       </c>
       <c r="E64" t="n">
-        <v>438.2999877929688</v>
+        <v>502.5</v>
       </c>
       <c r="F64" t="n">
-        <v>438.2999877929688</v>
+        <v>502.5</v>
       </c>
       <c r="G64" t="n">
-        <v>8347424</v>
+        <v>6136268</v>
       </c>
       <c r="H64" t="n">
         <v>2023</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3860,36 +3852,36 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B65" t="n">
-        <v>439</v>
+        <v>504.7999877929688</v>
       </c>
       <c r="C65" t="n">
-        <v>456.6000061035156</v>
+        <v>516.0499877929688</v>
       </c>
       <c r="D65" t="n">
-        <v>409</v>
+        <v>426.7999877929688</v>
       </c>
       <c r="E65" t="n">
-        <v>428.75</v>
+        <v>438.2999877929688</v>
       </c>
       <c r="F65" t="n">
-        <v>428.75</v>
+        <v>438.2999877929688</v>
       </c>
       <c r="G65" t="n">
-        <v>10781987</v>
+        <v>8347424</v>
       </c>
       <c r="H65" t="n">
         <v>2023</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B66" t="n">
+        <v>439</v>
+      </c>
+      <c r="C66" t="n">
+        <v>456.6000061035156</v>
+      </c>
+      <c r="D66" t="n">
+        <v>409</v>
+      </c>
+      <c r="E66" t="n">
         <v>428.75</v>
       </c>
-      <c r="C66" t="n">
-        <v>438.2000122070312</v>
-      </c>
-      <c r="D66" t="n">
-        <v>391.0499877929688</v>
-      </c>
-      <c r="E66" t="n">
-        <v>407.6499938964844</v>
-      </c>
       <c r="F66" t="n">
-        <v>407.6499938964844</v>
+        <v>428.75</v>
       </c>
       <c r="G66" t="n">
-        <v>3917545</v>
+        <v>10781987</v>
       </c>
       <c r="H66" t="n">
         <v>2023</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,45 +3949,45 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B67" t="n">
-        <v>408</v>
+        <v>428.75</v>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>438.2000122070312</v>
       </c>
       <c r="D67" t="n">
-        <v>402.5499877929688</v>
+        <v>391.0499877929688</v>
       </c>
       <c r="E67" t="n">
-        <v>441.1000061035156</v>
+        <v>407.6499938964844</v>
       </c>
       <c r="F67" t="n">
-        <v>441.1000061035156</v>
+        <v>407.6499938964844</v>
       </c>
       <c r="G67" t="n">
-        <v>7589852</v>
+        <v>3917545</v>
       </c>
       <c r="H67" t="n">
         <v>2023</v>
       </c>
       <c r="I67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,45 +4002,45 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B68" t="n">
-        <v>442.2999877929688</v>
+        <v>408</v>
       </c>
       <c r="C68" t="n">
-        <v>454.6499938964844</v>
+        <v>450</v>
       </c>
       <c r="D68" t="n">
-        <v>415.0499877929688</v>
+        <v>402.5499877929688</v>
       </c>
       <c r="E68" t="n">
-        <v>439.8999938964844</v>
+        <v>441.1000061035156</v>
       </c>
       <c r="F68" t="n">
-        <v>439.8999938964844</v>
+        <v>441.1000061035156</v>
       </c>
       <c r="G68" t="n">
-        <v>7261998</v>
+        <v>7589852</v>
       </c>
       <c r="H68" t="n">
         <v>2023</v>
       </c>
       <c r="I68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B69" t="n">
+        <v>442.2999877929688</v>
+      </c>
+      <c r="C69" t="n">
+        <v>454.6499938964844</v>
+      </c>
+      <c r="D69" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="E69" t="n">
         <v>439.8999938964844</v>
       </c>
-      <c r="C69" t="n">
-        <v>643</v>
-      </c>
-      <c r="D69" t="n">
-        <v>429.2999877929688</v>
-      </c>
-      <c r="E69" t="n">
-        <v>630.5999755859375</v>
-      </c>
       <c r="F69" t="n">
-        <v>630.5999755859375</v>
+        <v>439.8999938964844</v>
       </c>
       <c r="G69" t="n">
-        <v>60970894</v>
+        <v>7261998</v>
       </c>
       <c r="H69" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B70" t="n">
-        <v>646</v>
+        <v>439.8999938964844</v>
       </c>
       <c r="C70" t="n">
-        <v>669.3499755859375</v>
+        <v>643</v>
       </c>
       <c r="D70" t="n">
-        <v>482.2999877929688</v>
+        <v>429.2999877929688</v>
       </c>
       <c r="E70" t="n">
-        <v>538.2000122070312</v>
+        <v>630.5999755859375</v>
       </c>
       <c r="F70" t="n">
-        <v>538.2000122070312</v>
+        <v>630.5999755859375</v>
       </c>
       <c r="G70" t="n">
-        <v>33764287</v>
+        <v>60970894</v>
       </c>
       <c r="H70" t="n">
         <v>2024</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,45 +4161,45 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B71" t="n">
-        <v>550</v>
+        <v>646</v>
       </c>
       <c r="C71" t="n">
-        <v>583.5999755859375</v>
+        <v>669.3499755859375</v>
       </c>
       <c r="D71" t="n">
-        <v>477</v>
+        <v>482.2999877929688</v>
       </c>
       <c r="E71" t="n">
-        <v>497.75</v>
+        <v>538.2000122070312</v>
       </c>
       <c r="F71" t="n">
-        <v>497.75</v>
+        <v>538.2000122070312</v>
       </c>
       <c r="G71" t="n">
-        <v>15725578</v>
+        <v>33764287</v>
       </c>
       <c r="H71" t="n">
         <v>2024</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,45 +4214,45 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B72" t="n">
-        <v>505</v>
+        <v>550</v>
       </c>
       <c r="C72" t="n">
-        <v>562</v>
+        <v>583.5999755859375</v>
       </c>
       <c r="D72" t="n">
-        <v>502.0499877929688</v>
+        <v>477</v>
       </c>
       <c r="E72" t="n">
-        <v>524.7999877929688</v>
+        <v>497.75</v>
       </c>
       <c r="F72" t="n">
-        <v>524.7999877929688</v>
+        <v>497.75</v>
       </c>
       <c r="G72" t="n">
-        <v>13735598</v>
+        <v>15725578</v>
       </c>
       <c r="H72" t="n">
         <v>2024</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B73" t="n">
+        <v>505</v>
+      </c>
+      <c r="C73" t="n">
+        <v>562</v>
+      </c>
+      <c r="D73" t="n">
+        <v>502.0499877929688</v>
+      </c>
+      <c r="E73" t="n">
         <v>524.7999877929688</v>
       </c>
-      <c r="C73" t="n">
-        <v>527.4000244140625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>467.3500061035156</v>
-      </c>
-      <c r="E73" t="n">
-        <v>471.3500061035156</v>
-      </c>
       <c r="F73" t="n">
-        <v>471.3500061035156</v>
+        <v>524.7999877929688</v>
       </c>
       <c r="G73" t="n">
-        <v>8732989</v>
+        <v>13735598</v>
       </c>
       <c r="H73" t="n">
         <v>2024</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4342,56 +4334,514 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B74" t="n">
-        <v>485</v>
+        <v>524.7999877929688</v>
       </c>
       <c r="C74" t="n">
-        <v>499</v>
+        <v>527.4000244140625</v>
       </c>
       <c r="D74" t="n">
-        <v>428.4500122070312</v>
+        <v>467.3500061035156</v>
       </c>
       <c r="E74" t="n">
-        <v>492.1000061035156</v>
+        <v>471.3500061035156</v>
       </c>
       <c r="F74" t="n">
-        <v>492.1000061035156</v>
+        <v>471.3500061035156</v>
       </c>
       <c r="G74" t="n">
-        <v>2400827</v>
+        <v>8732989</v>
       </c>
       <c r="H74" t="n">
         <v>2024</v>
       </c>
       <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>18</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B75" t="n">
+        <v>485</v>
+      </c>
+      <c r="C75" t="n">
+        <v>499</v>
+      </c>
+      <c r="D75" t="n">
+        <v>428.4500122070312</v>
+      </c>
+      <c r="E75" t="n">
+        <v>492.1000061035156</v>
+      </c>
+      <c r="F75" t="n">
+        <v>492.1000061035156</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2400827</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I75" t="n">
         <v>6</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
         <v>22</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B76" t="n">
+        <v>506</v>
+      </c>
+      <c r="C76" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>464</v>
+      </c>
+      <c r="E76" t="n">
+        <v>558</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>53829891</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>27</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B77" t="n">
+        <v>558.0499877929688</v>
+      </c>
+      <c r="C77" t="n">
+        <v>563</v>
+      </c>
+      <c r="D77" t="n">
+        <v>486.0499877929688</v>
+      </c>
+      <c r="E77" t="n">
+        <v>513.5</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>15865906</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I77" t="n">
+        <v>8</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>31</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B78" t="n">
+        <v>506</v>
+      </c>
+      <c r="C78" t="n">
+        <v>524.4000244140625</v>
+      </c>
+      <c r="D78" t="n">
+        <v>486.25</v>
+      </c>
+      <c r="E78" t="n">
+        <v>491.7000122070312</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>8017692</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>35</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B79" t="n">
+        <v>494.4500122070312</v>
+      </c>
+      <c r="C79" t="n">
+        <v>495.7000122070312</v>
+      </c>
+      <c r="D79" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="E79" t="n">
+        <v>446.6000061035156</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>5277255</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I79" t="n">
+        <v>10</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>40</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B80" t="n">
+        <v>448.7999877929688</v>
+      </c>
+      <c r="C80" t="n">
+        <v>514.7999877929688</v>
+      </c>
+      <c r="D80" t="n">
+        <v>423.75</v>
+      </c>
+      <c r="E80" t="n">
+        <v>442</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>10100607</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>44</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B81" t="n">
+        <v>442.75</v>
+      </c>
+      <c r="C81" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D81" t="n">
+        <v>436.6000061035156</v>
+      </c>
+      <c r="E81" t="n">
+        <v>560.4500122070312</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>36031303</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>48</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B82" t="n">
+        <v>560</v>
+      </c>
+      <c r="C82" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="D82" t="n">
+        <v>467.8999938964844</v>
+      </c>
+      <c r="E82" t="n">
+        <v>528.2999877929688</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>5847094</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B83" t="n">
+        <v>537</v>
+      </c>
+      <c r="C83" t="n">
+        <v>573</v>
+      </c>
+      <c r="D83" t="n">
+        <v>472.4500122070312</v>
+      </c>
+      <c r="E83" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>3605241</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B84" t="n">
+        <v>502</v>
+      </c>
+      <c r="C84" t="n">
+        <v>548.25</v>
+      </c>
+      <c r="D84" t="n">
+        <v>476</v>
+      </c>
+      <c r="E84" t="n">
+        <v>478.4500122070312</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>2469412</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>9</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
